--- a/gcam-data-system/energy-data/assumptions/Tables_A20s_R.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A20s_R.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="15660" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="15660" windowHeight="12240" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A21.unoil_demandshares.csv" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="28">
   <si>
     <t>nuclear</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>supplysector</t>
-  </si>
-  <si>
-    <t>region</t>
   </si>
   <si>
     <t># Renewables tuned by region to match near term trends (see proposal 91).</t>
@@ -562,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,20 +570,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -716,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -734,17 +731,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -764,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>0.06</v>
@@ -778,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>0.26</v>
@@ -792,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0.26</v>
@@ -806,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>0.06</v>
@@ -820,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>0.12</v>
@@ -834,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>0.01</v>
@@ -848,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>0.15</v>
@@ -862,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>0.25</v>
@@ -876,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>0.06</v>
@@ -890,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>0.06</v>
@@ -904,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>0.02</v>
@@ -918,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>0.06</v>
@@ -932,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>0.3</v>
@@ -946,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>1.9</v>
@@ -960,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>0.1</v>
@@ -974,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>0.1</v>
@@ -988,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>0.1</v>
@@ -1002,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>0.1</v>
@@ -1016,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>0.1</v>
@@ -1030,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -1044,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>0.1</v>
@@ -1058,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>0.1</v>
@@ -1072,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>0.1</v>
@@ -1086,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>0.1</v>
@@ -1100,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>0.1</v>
@@ -1114,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>0.1</v>
@@ -1128,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>0.1</v>
@@ -1142,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>0.1</v>
@@ -1156,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>0.17</v>
@@ -1170,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>0.2</v>
@@ -1184,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>0.33</v>
@@ -1198,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35">
         <v>0.05</v>
@@ -1212,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>0.33</v>
@@ -1226,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37">
         <v>0.04</v>
@@ -1240,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38">
         <v>0.1</v>
@@ -1254,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>0.33</v>
@@ -1268,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40">
         <v>0.06</v>
@@ -1282,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41">
         <v>0.3</v>
@@ -1296,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42">
         <v>0.04</v>
@@ -1310,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43">
         <v>0.33</v>
@@ -1324,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <v>0.33</v>
@@ -1338,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45">
         <v>0.36</v>
@@ -1352,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>0.02</v>
@@ -1366,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>0.15</v>
@@ -1380,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>0.15</v>
@@ -1394,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>0.15</v>
@@ -1408,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>0.15</v>
@@ -1422,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51">
         <v>0.01</v>
@@ -1436,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52">
         <v>0.15</v>
@@ -1450,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53">
         <v>0.15</v>
@@ -1464,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54">
         <v>0.15</v>
@@ -1478,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55">
         <v>0.03</v>
@@ -1492,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56">
         <v>0.03</v>
@@ -1506,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57">
         <v>0.15</v>
@@ -1520,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>0.15</v>
@@ -1541,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1556,17 +1553,17 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
